--- a/noreportaron.xlsx
+++ b/noreportaron.xlsx
@@ -25,15 +25,24 @@
     <t>Reporta Abril</t>
   </si>
   <si>
+    <t>MU028</t>
+  </si>
+  <si>
+    <t>MU167</t>
+  </si>
+  <si>
     <t>MA002</t>
   </si>
   <si>
+    <t>MU331</t>
+  </si>
+  <si>
+    <t>MA031</t>
+  </si>
+  <si>
     <t>MA048</t>
   </si>
   <si>
-    <t>MU028</t>
-  </si>
-  <si>
     <t>MU182</t>
   </si>
   <si>
@@ -43,12 +52,6 @@
     <t>MU143</t>
   </si>
   <si>
-    <t>MU167</t>
-  </si>
-  <si>
-    <t>MA031</t>
-  </si>
-  <si>
     <t>MA025</t>
   </si>
   <si>
@@ -73,7 +76,7 @@
     <t>MA011</t>
   </si>
   <si>
-    <t>MU331</t>
+    <t>MA012</t>
   </si>
   <si>
     <t>AC003</t>
@@ -85,21 +88,18 @@
     <t>MU083</t>
   </si>
   <si>
-    <t>MA012</t>
-  </si>
-  <si>
     <t>AV001</t>
   </si>
   <si>
+    <t>MA049</t>
+  </si>
+  <si>
     <t>MA043</t>
   </si>
   <si>
     <t>AD012</t>
   </si>
   <si>
-    <t>MA049</t>
-  </si>
-  <si>
     <t>AR009</t>
   </si>
   <si>
@@ -121,15 +121,24 @@
     <t>CM007</t>
   </si>
   <si>
+    <t>Municipalidad de Carahue</t>
+  </si>
+  <si>
+    <t>Municipalidad de María Pinto</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades de la Región de Antofagasta</t>
   </si>
   <si>
+    <t>Municipalidad de Vallenar</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Ciudad Sur</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades de Arauco y Curanilahue</t>
   </si>
   <si>
-    <t>Municipalidad de Carahue</t>
-  </si>
-  <si>
     <t>Municipalidad de Ninhue</t>
   </si>
   <si>
@@ -139,12 +148,6 @@
     <t>Municipalidad de Llay Llay</t>
   </si>
   <si>
-    <t>Municipalidad de María Pinto</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Ciudad Sur</t>
-  </si>
-  <si>
     <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
   </si>
   <si>
@@ -169,7 +172,7 @@
     <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
   </si>
   <si>
-    <t>Municipalidad de Vallenar</t>
+    <t>Asociación de Municipalidades Paisajes de Conservación para la Biodiversidad de la Región de Los Ríos</t>
   </si>
   <si>
     <t>Dirección Nacional de Fronteras y Límites del Estado (DIFROL)</t>
@@ -181,19 +184,16 @@
     <t>Municipalidad de El Carmen</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades Paisajes de Conservación para la Biodiversidad de la Región de Los Ríos</t>
-  </si>
-  <si>
     <t>Ex Consejo Nacional de la Cultura y las Artes (CNCA)</t>
   </si>
   <si>
+    <t>Asociación de Municipalidades del Valle del Maipo</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
   </si>
   <si>
     <t>Defensa Civil de Chile</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades del Valle del Maipo</t>
   </si>
   <si>
     <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
@@ -594,7 +594,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>

--- a/noreportaron.xlsx
+++ b/noreportaron.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
   <si>
     <t>OrganismoCodigo</t>
   </si>
@@ -25,196 +25,442 @@
     <t>Reporta Abril</t>
   </si>
   <si>
+    <t>MU143</t>
+  </si>
+  <si>
+    <t>AM005</t>
+  </si>
+  <si>
     <t>MU028</t>
   </si>
   <si>
-    <t>MU167</t>
+    <t>MA034</t>
   </si>
   <si>
     <t>MA002</t>
   </si>
   <si>
+    <t>CM017</t>
+  </si>
+  <si>
+    <t>MA037</t>
+  </si>
+  <si>
+    <t>MU096</t>
+  </si>
+  <si>
+    <t>MU169</t>
+  </si>
+  <si>
+    <t>AO030</t>
+  </si>
+  <si>
+    <t>CM016</t>
+  </si>
+  <si>
+    <t>MU194</t>
+  </si>
+  <si>
+    <t>AD009</t>
+  </si>
+  <si>
     <t>MU331</t>
   </si>
   <si>
+    <t>MU112</t>
+  </si>
+  <si>
+    <t>MA020</t>
+  </si>
+  <si>
+    <t>MA016</t>
+  </si>
+  <si>
+    <t>MA058</t>
+  </si>
+  <si>
+    <t>MU075</t>
+  </si>
+  <si>
+    <t>CM024</t>
+  </si>
+  <si>
+    <t>MU344</t>
+  </si>
+  <si>
+    <t>CM012</t>
+  </si>
+  <si>
+    <t>CM020</t>
+  </si>
+  <si>
+    <t>MA010</t>
+  </si>
+  <si>
+    <t>MA029</t>
+  </si>
+  <si>
+    <t>MA027</t>
+  </si>
+  <si>
+    <t>AD023</t>
+  </si>
+  <si>
+    <t>MU153</t>
+  </si>
+  <si>
+    <t>AO040</t>
+  </si>
+  <si>
+    <t>MU244</t>
+  </si>
+  <si>
+    <t>CM004</t>
+  </si>
+  <si>
+    <t>MU229</t>
+  </si>
+  <si>
+    <t>MA023</t>
+  </si>
+  <si>
+    <t>MA033</t>
+  </si>
+  <si>
+    <t>CM059</t>
+  </si>
+  <si>
+    <t>MU017</t>
+  </si>
+  <si>
+    <t>MA047</t>
+  </si>
+  <si>
+    <t>CF009</t>
+  </si>
+  <si>
     <t>MA031</t>
   </si>
   <si>
+    <t>MA025</t>
+  </si>
+  <si>
+    <t>AE008</t>
+  </si>
+  <si>
+    <t>AC001</t>
+  </si>
+  <si>
+    <t>MU173</t>
+  </si>
+  <si>
+    <t>MU064</t>
+  </si>
+  <si>
+    <t>AO069</t>
+  </si>
+  <si>
+    <t>AK006</t>
+  </si>
+  <si>
+    <t>PP030</t>
+  </si>
+  <si>
+    <t>MA056</t>
+  </si>
+  <si>
+    <t>MU330</t>
+  </si>
+  <si>
+    <t>MA053</t>
+  </si>
+  <si>
+    <t>MU227</t>
+  </si>
+  <si>
+    <t>MA046</t>
+  </si>
+  <si>
+    <t>AO059</t>
+  </si>
+  <si>
+    <t>AP015</t>
+  </si>
+  <si>
+    <t>MA011</t>
+  </si>
+  <si>
+    <t>MU304</t>
+  </si>
+  <si>
     <t>MA048</t>
   </si>
   <si>
-    <t>MU182</t>
-  </si>
-  <si>
-    <t>MU229</t>
-  </si>
-  <si>
-    <t>MU143</t>
-  </si>
-  <si>
-    <t>MA025</t>
-  </si>
-  <si>
-    <t>AE008</t>
-  </si>
-  <si>
-    <t>AK006</t>
-  </si>
-  <si>
-    <t>PP030</t>
-  </si>
-  <si>
-    <t>MU330</t>
-  </si>
-  <si>
-    <t>MA046</t>
+    <t>MA019</t>
+  </si>
+  <si>
+    <t>AC002</t>
+  </si>
+  <si>
+    <t>MU083</t>
   </si>
   <si>
     <t>MA003</t>
   </si>
   <si>
-    <t>MA011</t>
-  </si>
-  <si>
-    <t>MA012</t>
-  </si>
-  <si>
-    <t>AC003</t>
-  </si>
-  <si>
-    <t>AC002</t>
-  </si>
-  <si>
-    <t>MU083</t>
+    <t>MA015</t>
+  </si>
+  <si>
+    <t>MA043</t>
+  </si>
+  <si>
+    <t>AD012</t>
+  </si>
+  <si>
+    <t>MA049</t>
+  </si>
+  <si>
+    <t>AR009</t>
+  </si>
+  <si>
+    <t>MU111</t>
+  </si>
+  <si>
+    <t>MA063</t>
+  </si>
+  <si>
+    <t>MA064</t>
+  </si>
+  <si>
+    <t>MU335</t>
+  </si>
+  <si>
+    <t>CM007</t>
+  </si>
+  <si>
+    <t>MA017</t>
   </si>
   <si>
     <t>AV001</t>
   </si>
   <si>
-    <t>MA049</t>
-  </si>
-  <si>
-    <t>MA043</t>
-  </si>
-  <si>
-    <t>AD012</t>
-  </si>
-  <si>
-    <t>AR009</t>
-  </si>
-  <si>
-    <t>MU111</t>
-  </si>
-  <si>
-    <t>MU335</t>
-  </si>
-  <si>
-    <t>MU307</t>
-  </si>
-  <si>
-    <t>MA017</t>
-  </si>
-  <si>
-    <t>AD009</t>
-  </si>
-  <si>
-    <t>CM007</t>
+    <t>Municipalidad de Llay Llay</t>
+  </si>
+  <si>
+    <t>Dirección de Arquitectura (DARQ)</t>
   </si>
   <si>
     <t>Municipalidad de Carahue</t>
   </si>
   <si>
-    <t>Municipalidad de María Pinto</t>
+    <t>Asociación de Municipalidades Rurales del Norte Chico</t>
   </si>
   <si>
     <t>Asociación de Municipalidades de la Región de Antofagasta</t>
   </si>
   <si>
+    <t>Corporación Municipal de La Reina</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Cordilleranos AMCORDI</t>
+  </si>
+  <si>
+    <t>Municipalidad de Futrono</t>
+  </si>
+  <si>
+    <t>Municipalidad de Maule</t>
+  </si>
+  <si>
+    <t>Servicio de Salud Arauco</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Desarrollo Social de Til Til</t>
+  </si>
+  <si>
+    <t>Municipalidad de Padre Las Casas</t>
+  </si>
+  <si>
+    <t>Carabineros de Chile</t>
+  </si>
+  <si>
     <t>Municipalidad de Vallenar</t>
   </si>
   <si>
+    <t>Municipalidad de Iquique</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades del Norte de Chile</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Aconcagua</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+  </si>
+  <si>
+    <t>Municipalidad de Curanilahue</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Ancud</t>
+  </si>
+  <si>
+    <t>Municipalidad de Yungay</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Educación y Servicios Ramón Freire Dalcahue</t>
+  </si>
+  <si>
+    <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades para el Desarrollo Económico Local</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de Ciudades Puerto y Borde Costero</t>
+  </si>
+  <si>
+    <t>Asociación Municipal para la sustentabilidad ambiental AMUSA</t>
+  </si>
+  <si>
+    <t>Estado Mayor Conjunto (EMCO)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Los Angeles</t>
+  </si>
+  <si>
+    <t>SEREMI de Salud  de Tarapacá</t>
+  </si>
+  <si>
+    <t>Municipalidad de Putre</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Queilen</t>
+  </si>
+  <si>
+    <t>Municipalidad de Puchuncaví</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Costa Araucanía</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Deporte Rancagua</t>
+  </si>
+  <si>
+    <t>Municipalidad de Cabo de Hornos y Antártica</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades con Centros de Montaña</t>
+  </si>
+  <si>
+    <t>CFT de la Región de Antofagasta</t>
+  </si>
+  <si>
     <t>Asociación de Municipios Ciudad Sur</t>
   </si>
   <si>
+    <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
+  </si>
+  <si>
+    <t>Superintendencia de Bancos e Instituciones Financieras (SBIF)</t>
+  </si>
+  <si>
+    <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Melipilla</t>
+  </si>
+  <si>
+    <t>Municipalidad de Constitución</t>
+  </si>
+  <si>
+    <t>Hospital Urgencia Asistencia Pública (HUAP)</t>
+  </si>
+  <si>
+    <t>Gendarmería de Chile</t>
+  </si>
+  <si>
+    <t>Partido Ciudadanos</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Metropolitanos para la Seguridad Ciudadana (AMMSeguridad)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Valdivia</t>
+  </si>
+  <si>
+    <t>Asociación Chilena de Municipalidades con Farmacias Populares (ACHIFARP)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Primavera</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
+  </si>
+  <si>
+    <t>Hospital Regional Coyhaique</t>
+  </si>
+  <si>
+    <t>SERVIU Región de Los Ríos</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
+  </si>
+  <si>
+    <t>Municipalidad de Santa Bárbara</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades de Arauco y Curanilahue</t>
   </si>
   <si>
-    <t>Municipalidad de Ninhue</t>
-  </si>
-  <si>
-    <t>Municipalidad de Puchuncaví</t>
-  </si>
-  <si>
-    <t>Municipalidad de Llay Llay</t>
-  </si>
-  <si>
-    <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
-  </si>
-  <si>
-    <t>Superintendencia de Bancos e Instituciones Financieras (SBIF)</t>
-  </si>
-  <si>
-    <t>Gendarmería de Chile</t>
-  </si>
-  <si>
-    <t>Partido Ciudadanos</t>
-  </si>
-  <si>
-    <t>Municipalidad de Valdivia</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
+    <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
+  </si>
+  <si>
+    <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
+  </si>
+  <si>
+    <t>Municipalidad de El Carmen</t>
   </si>
   <si>
     <t>Asociación de Municipalidades Nahuelbuta (AMN)</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Paisajes de Conservación para la Biodiversidad de la Región de Los Ríos</t>
-  </si>
-  <si>
-    <t>Dirección Nacional de Fronteras y Límites del Estado (DIFROL)</t>
-  </si>
-  <si>
-    <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
-  </si>
-  <si>
-    <t>Municipalidad de El Carmen</t>
+    <t>Asociación de Municipalidades de la Provincia de Arauco</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+  </si>
+  <si>
+    <t>Defensa Civil de Chile</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades del Valle del Maipo</t>
+  </si>
+  <si>
+    <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Independencia</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades para la Seguridad Ciudadana Concón  Limache</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Turísticas de Chile (AMTC)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Vicuña</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Servicios y Desarrollo de Maipú (CODEDUC)</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Desarrollo Apicultura Turismo y Medio Ambiente Zona de Amortiguación de la Región de Los Lagos</t>
   </si>
   <si>
     <t>Ex Consejo Nacional de la Cultura y las Artes (CNCA)</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades del Valle del Maipo</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
-  </si>
-  <si>
-    <t>Defensa Civil de Chile</t>
-  </si>
-  <si>
-    <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Independencia</t>
-  </si>
-  <si>
-    <t>Municipalidad de Vicuña</t>
-  </si>
-  <si>
-    <t>Municipalidad de Santa María</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Desarrollo Apicultura Turismo y Medio Ambiente Zona de Amortiguación de la Región de Los Lagos</t>
-  </si>
-  <si>
-    <t>Carabineros de Chile</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Maipú (CODEDUC)</t>
   </si>
   <si>
     <t>No</t>
@@ -575,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,450 +840,1024 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>440</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>451</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>519</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>534</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>581</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>589</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>599</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>603</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>614</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>615</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>646</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>650</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>659</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>666</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>676</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>678</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>679</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>680</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>681</v>
+        <v>420</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>682</v>
+        <v>450</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>683</v>
+        <v>458</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>686</v>
+        <v>478</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>687</v>
+        <v>479</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>688</v>
+        <v>496</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>506</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>511</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>518</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>544</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>553</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>554</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>571</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>579</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>580</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>592</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>609</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>617</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>624</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>625</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>633</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>638</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>640</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>643</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>644</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>647</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>650</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>655</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>656</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>666</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>667</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>676</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>677</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>688</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>689</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>690</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>698</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>699</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>701</v>
+      </c>
+      <c r="B66" t="s">
         <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>702</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>703</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>704</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>705</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>707</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>709</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>710</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>711</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/noreportaron.xlsx
+++ b/noreportaron.xlsx
@@ -25,207 +25,207 @@
     <t>Reporta Abril</t>
   </si>
   <si>
+    <t>MU169</t>
+  </si>
+  <si>
+    <t>MA058</t>
+  </si>
+  <si>
+    <t>MU075</t>
+  </si>
+  <si>
+    <t>CM017</t>
+  </si>
+  <si>
+    <t>MA002</t>
+  </si>
+  <si>
+    <t>CM024</t>
+  </si>
+  <si>
+    <t>MU344</t>
+  </si>
+  <si>
+    <t>CM012</t>
+  </si>
+  <si>
+    <t>CM020</t>
+  </si>
+  <si>
+    <t>MA010</t>
+  </si>
+  <si>
+    <t>MA029</t>
+  </si>
+  <si>
+    <t>MU194</t>
+  </si>
+  <si>
+    <t>MA027</t>
+  </si>
+  <si>
+    <t>MA034</t>
+  </si>
+  <si>
+    <t>CM016</t>
+  </si>
+  <si>
+    <t>MU028</t>
+  </si>
+  <si>
+    <t>AD023</t>
+  </si>
+  <si>
+    <t>MU153</t>
+  </si>
+  <si>
+    <t>MA020</t>
+  </si>
+  <si>
+    <t>AO040</t>
+  </si>
+  <si>
+    <t>MU244</t>
+  </si>
+  <si>
+    <t>CM004</t>
+  </si>
+  <si>
+    <t>MU229</t>
+  </si>
+  <si>
+    <t>MA023</t>
+  </si>
+  <si>
     <t>MU143</t>
   </si>
   <si>
+    <t>MA033</t>
+  </si>
+  <si>
+    <t>CM059</t>
+  </si>
+  <si>
+    <t>MU331</t>
+  </si>
+  <si>
+    <t>MU017</t>
+  </si>
+  <si>
+    <t>MA047</t>
+  </si>
+  <si>
+    <t>CF009</t>
+  </si>
+  <si>
+    <t>MU096</t>
+  </si>
+  <si>
+    <t>MA031</t>
+  </si>
+  <si>
+    <t>AO030</t>
+  </si>
+  <si>
+    <t>MA025</t>
+  </si>
+  <si>
+    <t>AE008</t>
+  </si>
+  <si>
+    <t>AC001</t>
+  </si>
+  <si>
+    <t>MA037</t>
+  </si>
+  <si>
+    <t>MU173</t>
+  </si>
+  <si>
+    <t>MU064</t>
+  </si>
+  <si>
+    <t>AO069</t>
+  </si>
+  <si>
+    <t>AK006</t>
+  </si>
+  <si>
+    <t>PP030</t>
+  </si>
+  <si>
+    <t>MA016</t>
+  </si>
+  <si>
+    <t>MA056</t>
+  </si>
+  <si>
+    <t>MU330</t>
+  </si>
+  <si>
+    <t>MA053</t>
+  </si>
+  <si>
+    <t>MU227</t>
+  </si>
+  <si>
+    <t>MA046</t>
+  </si>
+  <si>
+    <t>AO059</t>
+  </si>
+  <si>
+    <t>AP015</t>
+  </si>
+  <si>
+    <t>MA011</t>
+  </si>
+  <si>
     <t>AM005</t>
   </si>
   <si>
-    <t>MU028</t>
-  </si>
-  <si>
-    <t>MA034</t>
-  </si>
-  <si>
-    <t>MA002</t>
-  </si>
-  <si>
-    <t>CM017</t>
-  </si>
-  <si>
-    <t>MA037</t>
-  </si>
-  <si>
-    <t>MU096</t>
-  </si>
-  <si>
-    <t>MU169</t>
-  </si>
-  <si>
-    <t>AO030</t>
-  </si>
-  <si>
-    <t>CM016</t>
-  </si>
-  <si>
-    <t>MU194</t>
+    <t>MU112</t>
   </si>
   <si>
     <t>AD009</t>
   </si>
   <si>
-    <t>MU331</t>
-  </si>
-  <si>
-    <t>MU112</t>
-  </si>
-  <si>
-    <t>MA020</t>
-  </si>
-  <si>
-    <t>MA016</t>
-  </si>
-  <si>
-    <t>MA058</t>
-  </si>
-  <si>
-    <t>MU075</t>
-  </si>
-  <si>
-    <t>CM024</t>
-  </si>
-  <si>
-    <t>MU344</t>
-  </si>
-  <si>
-    <t>CM012</t>
-  </si>
-  <si>
-    <t>CM020</t>
-  </si>
-  <si>
-    <t>MA010</t>
-  </si>
-  <si>
-    <t>MA029</t>
-  </si>
-  <si>
-    <t>MA027</t>
-  </si>
-  <si>
-    <t>AD023</t>
-  </si>
-  <si>
-    <t>MU153</t>
-  </si>
-  <si>
-    <t>AO040</t>
-  </si>
-  <si>
-    <t>MU244</t>
-  </si>
-  <si>
-    <t>CM004</t>
-  </si>
-  <si>
-    <t>MU229</t>
-  </si>
-  <si>
-    <t>MA023</t>
-  </si>
-  <si>
-    <t>MA033</t>
-  </si>
-  <si>
-    <t>CM059</t>
-  </si>
-  <si>
-    <t>MU017</t>
-  </si>
-  <si>
-    <t>MA047</t>
-  </si>
-  <si>
-    <t>CF009</t>
-  </si>
-  <si>
-    <t>MA031</t>
-  </si>
-  <si>
-    <t>MA025</t>
-  </si>
-  <si>
-    <t>AE008</t>
-  </si>
-  <si>
-    <t>AC001</t>
-  </si>
-  <si>
-    <t>MU173</t>
-  </si>
-  <si>
-    <t>MU064</t>
-  </si>
-  <si>
-    <t>AO069</t>
-  </si>
-  <si>
-    <t>AK006</t>
-  </si>
-  <si>
-    <t>PP030</t>
-  </si>
-  <si>
-    <t>MA056</t>
-  </si>
-  <si>
-    <t>MU330</t>
-  </si>
-  <si>
-    <t>MA053</t>
-  </si>
-  <si>
-    <t>MU227</t>
-  </si>
-  <si>
-    <t>MA046</t>
-  </si>
-  <si>
-    <t>AO059</t>
-  </si>
-  <si>
-    <t>AP015</t>
-  </si>
-  <si>
-    <t>MA011</t>
+    <t>MA048</t>
+  </si>
+  <si>
+    <t>MA019</t>
+  </si>
+  <si>
+    <t>AC002</t>
+  </si>
+  <si>
+    <t>MU083</t>
+  </si>
+  <si>
+    <t>MA003</t>
+  </si>
+  <si>
+    <t>MA015</t>
   </si>
   <si>
     <t>MU304</t>
   </si>
   <si>
-    <t>MA048</t>
-  </si>
-  <si>
-    <t>MA019</t>
-  </si>
-  <si>
-    <t>AC002</t>
-  </si>
-  <si>
-    <t>MU083</t>
-  </si>
-  <si>
-    <t>MA003</t>
-  </si>
-  <si>
-    <t>MA015</t>
-  </si>
-  <si>
     <t>MA043</t>
   </si>
   <si>
     <t>AD012</t>
   </si>
   <si>
+    <t>AR009</t>
+  </si>
+  <si>
+    <t>MU111</t>
+  </si>
+  <si>
     <t>MA049</t>
   </si>
   <si>
-    <t>AR009</t>
-  </si>
-  <si>
-    <t>MU111</t>
-  </si>
-  <si>
     <t>MA063</t>
   </si>
   <si>
@@ -244,205 +244,205 @@
     <t>AV001</t>
   </si>
   <si>
+    <t>Municipalidad de Maule</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+  </si>
+  <si>
+    <t>Municipalidad de Curanilahue</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de La Reina</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Ancud</t>
+  </si>
+  <si>
+    <t>Municipalidad de Yungay</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Educación y Servicios Ramón Freire Dalcahue</t>
+  </si>
+  <si>
+    <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades para el Desarrollo Económico Local</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de Ciudades Puerto y Borde Costero</t>
+  </si>
+  <si>
+    <t>Municipalidad de Padre Las Casas</t>
+  </si>
+  <si>
+    <t>Asociación Municipal para la sustentabilidad ambiental AMUSA</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Rurales del Norte Chico</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Desarrollo Social de Til Til</t>
+  </si>
+  <si>
+    <t>Municipalidad de Carahue</t>
+  </si>
+  <si>
+    <t>Estado Mayor Conjunto (EMCO)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Los Angeles</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades del Norte de Chile</t>
+  </si>
+  <si>
+    <t>SEREMI de Salud  de Tarapacá</t>
+  </si>
+  <si>
+    <t>Municipalidad de Putre</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Queilen</t>
+  </si>
+  <si>
+    <t>Municipalidad de Puchuncaví</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+  </si>
+  <si>
     <t>Municipalidad de Llay Llay</t>
   </si>
   <si>
+    <t>Asociación de Municipios Costa Araucanía</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Deporte Rancagua</t>
+  </si>
+  <si>
+    <t>Municipalidad de Vallenar</t>
+  </si>
+  <si>
+    <t>Municipalidad de Cabo de Hornos y Antártica</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades con Centros de Montaña</t>
+  </si>
+  <si>
+    <t>CFT de la Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Municipalidad de Futrono</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Ciudad Sur</t>
+  </si>
+  <si>
+    <t>Servicio de Salud Arauco</t>
+  </si>
+  <si>
+    <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
+  </si>
+  <si>
+    <t>Superintendencia de Bancos e Instituciones Financieras (SBIF)</t>
+  </si>
+  <si>
+    <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Cordilleranos AMCORDI</t>
+  </si>
+  <si>
+    <t>Municipalidad de Melipilla</t>
+  </si>
+  <si>
+    <t>Municipalidad de Constitución</t>
+  </si>
+  <si>
+    <t>Hospital Urgencia Asistencia Pública (HUAP)</t>
+  </si>
+  <si>
+    <t>Gendarmería de Chile</t>
+  </si>
+  <si>
+    <t>Partido Ciudadanos</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Aconcagua</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Metropolitanos para la Seguridad Ciudadana (AMMSeguridad)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Valdivia</t>
+  </si>
+  <si>
+    <t>Asociación Chilena de Municipalidades con Farmacias Populares (ACHIFARP)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Primavera</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
+  </si>
+  <si>
+    <t>Hospital Regional Coyhaique</t>
+  </si>
+  <si>
+    <t>SERVIU Región de Los Ríos</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
+  </si>
+  <si>
     <t>Dirección de Arquitectura (DARQ)</t>
   </si>
   <si>
-    <t>Municipalidad de Carahue</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Rurales del Norte Chico</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Región de Antofagasta</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de La Reina</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Cordilleranos AMCORDI</t>
-  </si>
-  <si>
-    <t>Municipalidad de Futrono</t>
-  </si>
-  <si>
-    <t>Municipalidad de Maule</t>
-  </si>
-  <si>
-    <t>Servicio de Salud Arauco</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Desarrollo Social de Til Til</t>
-  </si>
-  <si>
-    <t>Municipalidad de Padre Las Casas</t>
+    <t>Municipalidad de Iquique</t>
   </si>
   <si>
     <t>Carabineros de Chile</t>
   </si>
   <si>
-    <t>Municipalidad de Vallenar</t>
-  </si>
-  <si>
-    <t>Municipalidad de Iquique</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades del Norte de Chile</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Región de Aconcagua</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
-  </si>
-  <si>
-    <t>Municipalidad de Curanilahue</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Ancud</t>
-  </si>
-  <si>
-    <t>Municipalidad de Yungay</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Educación y Servicios Ramón Freire Dalcahue</t>
-  </si>
-  <si>
-    <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades para el Desarrollo Económico Local</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de Ciudades Puerto y Borde Costero</t>
-  </si>
-  <si>
-    <t>Asociación Municipal para la sustentabilidad ambiental AMUSA</t>
-  </si>
-  <si>
-    <t>Estado Mayor Conjunto (EMCO)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Los Angeles</t>
-  </si>
-  <si>
-    <t>SEREMI de Salud  de Tarapacá</t>
-  </si>
-  <si>
-    <t>Municipalidad de Putre</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Queilen</t>
-  </si>
-  <si>
-    <t>Municipalidad de Puchuncaví</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Región de Valparaíso</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Costa Araucanía</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Deporte Rancagua</t>
-  </si>
-  <si>
-    <t>Municipalidad de Cabo de Hornos y Antártica</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades con Centros de Montaña</t>
-  </si>
-  <si>
-    <t>CFT de la Región de Antofagasta</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Ciudad Sur</t>
-  </si>
-  <si>
-    <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
-  </si>
-  <si>
-    <t>Superintendencia de Bancos e Instituciones Financieras (SBIF)</t>
-  </si>
-  <si>
-    <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Melipilla</t>
-  </si>
-  <si>
-    <t>Municipalidad de Constitución</t>
-  </si>
-  <si>
-    <t>Hospital Urgencia Asistencia Pública (HUAP)</t>
-  </si>
-  <si>
-    <t>Gendarmería de Chile</t>
-  </si>
-  <si>
-    <t>Partido Ciudadanos</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Metropolitanos para la Seguridad Ciudadana (AMMSeguridad)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Valdivia</t>
-  </si>
-  <si>
-    <t>Asociación Chilena de Municipalidades con Farmacias Populares (ACHIFARP)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Primavera</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
-  </si>
-  <si>
-    <t>Hospital Regional Coyhaique</t>
-  </si>
-  <si>
-    <t>SERVIU Región de Los Ríos</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
+    <t>Asociación de Municipalidades de Arauco y Curanilahue</t>
+  </si>
+  <si>
+    <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
+  </si>
+  <si>
+    <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
+  </si>
+  <si>
+    <t>Municipalidad de El Carmen</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Nahuelbuta (AMN)</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Provincia de Arauco</t>
   </si>
   <si>
     <t>Municipalidad de Santa Bárbara</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades de Arauco y Curanilahue</t>
-  </si>
-  <si>
-    <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
-  </si>
-  <si>
-    <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
-  </si>
-  <si>
-    <t>Municipalidad de El Carmen</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Nahuelbuta (AMN)</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Provincia de Arauco</t>
-  </si>
-  <si>
     <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
   </si>
   <si>
     <t>Defensa Civil de Chile</t>
   </si>
   <si>
+    <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Independencia</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades del Valle del Maipo</t>
-  </si>
-  <si>
-    <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Independencia</t>
   </si>
   <si>
     <t>Asociación de Municipalidades para la Seguridad Ciudadana Concón  Limache</t>
@@ -840,7 +840,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>

--- a/noreportaron.xlsx
+++ b/noreportaron.xlsx
@@ -25,39 +25,87 @@
     <t>Reporta Abril</t>
   </si>
   <si>
+    <t>MU344</t>
+  </si>
+  <si>
+    <t>AD023</t>
+  </si>
+  <si>
+    <t>CM024</t>
+  </si>
+  <si>
+    <t>MA002</t>
+  </si>
+  <si>
+    <t>MU229</t>
+  </si>
+  <si>
+    <t>MA020</t>
+  </si>
+  <si>
+    <t>MA023</t>
+  </si>
+  <si>
+    <t>MU143</t>
+  </si>
+  <si>
+    <t>MA033</t>
+  </si>
+  <si>
+    <t>CM012</t>
+  </si>
+  <si>
     <t>MU169</t>
   </si>
   <si>
+    <t>CM059</t>
+  </si>
+  <si>
+    <t>MA029</t>
+  </si>
+  <si>
+    <t>MU331</t>
+  </si>
+  <si>
+    <t>MU017</t>
+  </si>
+  <si>
+    <t>CM004</t>
+  </si>
+  <si>
+    <t>MA047</t>
+  </si>
+  <si>
+    <t>CF009</t>
+  </si>
+  <si>
+    <t>MU075</t>
+  </si>
+  <si>
+    <t>MU096</t>
+  </si>
+  <si>
+    <t>MA031</t>
+  </si>
+  <si>
+    <t>AO030</t>
+  </si>
+  <si>
+    <t>MA025</t>
+  </si>
+  <si>
     <t>MA058</t>
   </si>
   <si>
-    <t>MU075</t>
-  </si>
-  <si>
     <t>CM017</t>
   </si>
   <si>
-    <t>MA002</t>
-  </si>
-  <si>
-    <t>CM024</t>
-  </si>
-  <si>
-    <t>MU344</t>
-  </si>
-  <si>
-    <t>CM012</t>
-  </si>
-  <si>
     <t>CM020</t>
   </si>
   <si>
     <t>MA010</t>
   </si>
   <si>
-    <t>MA029</t>
-  </si>
-  <si>
     <t>MU194</t>
   </si>
   <si>
@@ -73,132 +121,84 @@
     <t>MU028</t>
   </si>
   <si>
-    <t>AD023</t>
-  </si>
-  <si>
     <t>MU153</t>
   </si>
   <si>
-    <t>MA020</t>
-  </si>
-  <si>
     <t>AO040</t>
   </si>
   <si>
     <t>MU244</t>
   </si>
   <si>
-    <t>CM004</t>
-  </si>
-  <si>
-    <t>MU229</t>
-  </si>
-  <si>
-    <t>MA023</t>
-  </si>
-  <si>
-    <t>MU143</t>
-  </si>
-  <si>
-    <t>MA033</t>
-  </si>
-  <si>
-    <t>CM059</t>
-  </si>
-  <si>
-    <t>MU331</t>
-  </si>
-  <si>
-    <t>MU017</t>
-  </si>
-  <si>
-    <t>MA047</t>
-  </si>
-  <si>
-    <t>CF009</t>
-  </si>
-  <si>
-    <t>MU096</t>
-  </si>
-  <si>
-    <t>MA031</t>
-  </si>
-  <si>
-    <t>AO030</t>
-  </si>
-  <si>
-    <t>MA025</t>
+    <t>AO069</t>
+  </si>
+  <si>
+    <t>AK006</t>
+  </si>
+  <si>
+    <t>AC001</t>
+  </si>
+  <si>
+    <t>PP030</t>
+  </si>
+  <si>
+    <t>MA016</t>
+  </si>
+  <si>
+    <t>MA056</t>
+  </si>
+  <si>
+    <t>MU330</t>
   </si>
   <si>
     <t>AE008</t>
   </si>
   <si>
-    <t>AC001</t>
+    <t>MA053</t>
+  </si>
+  <si>
+    <t>MU227</t>
+  </si>
+  <si>
+    <t>MA046</t>
+  </si>
+  <si>
+    <t>AO059</t>
+  </si>
+  <si>
+    <t>MU064</t>
+  </si>
+  <si>
+    <t>AP015</t>
+  </si>
+  <si>
+    <t>MA011</t>
+  </si>
+  <si>
+    <t>AM005</t>
   </si>
   <si>
     <t>MA037</t>
   </si>
   <si>
+    <t>MU112</t>
+  </si>
+  <si>
+    <t>AD009</t>
+  </si>
+  <si>
+    <t>MA048</t>
+  </si>
+  <si>
+    <t>MA019</t>
+  </si>
+  <si>
+    <t>AC002</t>
+  </si>
+  <si>
     <t>MU173</t>
   </si>
   <si>
-    <t>MU064</t>
-  </si>
-  <si>
-    <t>AO069</t>
-  </si>
-  <si>
-    <t>AK006</t>
-  </si>
-  <si>
-    <t>PP030</t>
-  </si>
-  <si>
-    <t>MA016</t>
-  </si>
-  <si>
-    <t>MA056</t>
-  </si>
-  <si>
-    <t>MU330</t>
-  </si>
-  <si>
-    <t>MA053</t>
-  </si>
-  <si>
-    <t>MU227</t>
-  </si>
-  <si>
-    <t>MA046</t>
-  </si>
-  <si>
-    <t>AO059</t>
-  </si>
-  <si>
-    <t>AP015</t>
-  </si>
-  <si>
-    <t>MA011</t>
-  </si>
-  <si>
-    <t>AM005</t>
-  </si>
-  <si>
-    <t>MU112</t>
-  </si>
-  <si>
-    <t>AD009</t>
-  </si>
-  <si>
-    <t>MA048</t>
-  </si>
-  <si>
-    <t>MA019</t>
-  </si>
-  <si>
-    <t>AC002</t>
-  </si>
-  <si>
     <t>MU083</t>
   </si>
   <si>
@@ -211,27 +211,27 @@
     <t>MU304</t>
   </si>
   <si>
+    <t>AD012</t>
+  </si>
+  <si>
     <t>MA043</t>
   </si>
   <si>
-    <t>AD012</t>
-  </si>
-  <si>
     <t>AR009</t>
   </si>
   <si>
+    <t>MA063</t>
+  </si>
+  <si>
+    <t>MA049</t>
+  </si>
+  <si>
+    <t>MA064</t>
+  </si>
+  <si>
     <t>MU111</t>
   </si>
   <si>
-    <t>MA049</t>
-  </si>
-  <si>
-    <t>MA063</t>
-  </si>
-  <si>
-    <t>MA064</t>
-  </si>
-  <si>
     <t>MU335</t>
   </si>
   <si>
@@ -244,39 +244,87 @@
     <t>AV001</t>
   </si>
   <si>
+    <t>Municipalidad de Yungay</t>
+  </si>
+  <si>
+    <t>Estado Mayor Conjunto (EMCO)</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Ancud</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Municipalidad de Puchuncaví</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades del Norte de Chile</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>Municipalidad de Llay Llay</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Costa Araucanía</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Educación y Servicios Ramón Freire Dalcahue</t>
+  </si>
+  <si>
     <t>Municipalidad de Maule</t>
   </si>
   <si>
+    <t>Corporación Municipal de Deporte Rancagua</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de Ciudades Puerto y Borde Costero</t>
+  </si>
+  <si>
+    <t>Municipalidad de Vallenar</t>
+  </si>
+  <si>
+    <t>Municipalidad de Cabo de Hornos y Antártica</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Queilen</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades con Centros de Montaña</t>
+  </si>
+  <si>
+    <t>CFT de la Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Municipalidad de Curanilahue</t>
+  </si>
+  <si>
+    <t>Municipalidad de Futrono</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Ciudad Sur</t>
+  </si>
+  <si>
+    <t>Servicio de Salud Arauco</t>
+  </si>
+  <si>
+    <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
   </si>
   <si>
-    <t>Municipalidad de Curanilahue</t>
-  </si>
-  <si>
     <t>Corporación Municipal de La Reina</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades de la Región de Antofagasta</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Ancud</t>
-  </si>
-  <si>
-    <t>Municipalidad de Yungay</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Educación y Servicios Ramón Freire Dalcahue</t>
-  </si>
-  <si>
     <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
   </si>
   <si>
     <t>Asociación de Municipalidades para el Desarrollo Económico Local</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades de Ciudades Puerto y Borde Costero</t>
-  </si>
-  <si>
     <t>Municipalidad de Padre Las Casas</t>
   </si>
   <si>
@@ -292,132 +340,84 @@
     <t>Municipalidad de Carahue</t>
   </si>
   <si>
-    <t>Estado Mayor Conjunto (EMCO)</t>
-  </si>
-  <si>
     <t>Municipalidad de Los Angeles</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades del Norte de Chile</t>
-  </si>
-  <si>
     <t>SEREMI de Salud  de Tarapacá</t>
   </si>
   <si>
     <t>Municipalidad de Putre</t>
   </si>
   <si>
-    <t>Corporación Municipal de Queilen</t>
-  </si>
-  <si>
-    <t>Municipalidad de Puchuncaví</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Región de Valparaíso</t>
-  </si>
-  <si>
-    <t>Municipalidad de Llay Llay</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Costa Araucanía</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Deporte Rancagua</t>
-  </si>
-  <si>
-    <t>Municipalidad de Vallenar</t>
-  </si>
-  <si>
-    <t>Municipalidad de Cabo de Hornos y Antártica</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades con Centros de Montaña</t>
-  </si>
-  <si>
-    <t>CFT de la Región de Antofagasta</t>
-  </si>
-  <si>
-    <t>Municipalidad de Futrono</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Ciudad Sur</t>
-  </si>
-  <si>
-    <t>Servicio de Salud Arauco</t>
-  </si>
-  <si>
-    <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
+    <t>Hospital Urgencia Asistencia Pública (HUAP)</t>
+  </si>
+  <si>
+    <t>Gendarmería de Chile</t>
+  </si>
+  <si>
+    <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+  </si>
+  <si>
+    <t>Partido Ciudadanos</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Aconcagua</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Metropolitanos para la Seguridad Ciudadana (AMMSeguridad)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Valdivia</t>
   </si>
   <si>
     <t>Superintendencia de Bancos e Instituciones Financieras (SBIF)</t>
   </si>
   <si>
-    <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+    <t>Asociación Chilena de Municipalidades con Farmacias Populares (ACHIFARP)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Primavera</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
+  </si>
+  <si>
+    <t>Hospital Regional Coyhaique</t>
+  </si>
+  <si>
+    <t>Municipalidad de Constitución</t>
+  </si>
+  <si>
+    <t>SERVIU Región de Los Ríos</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
+  </si>
+  <si>
+    <t>Dirección de Arquitectura (DARQ)</t>
   </si>
   <si>
     <t>Asociación de Municipios Cordilleranos AMCORDI</t>
   </si>
   <si>
+    <t>Municipalidad de Iquique</t>
+  </si>
+  <si>
+    <t>Carabineros de Chile</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de Arauco y Curanilahue</t>
+  </si>
+  <si>
+    <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
+  </si>
+  <si>
+    <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
+  </si>
+  <si>
     <t>Municipalidad de Melipilla</t>
   </si>
   <si>
-    <t>Municipalidad de Constitución</t>
-  </si>
-  <si>
-    <t>Hospital Urgencia Asistencia Pública (HUAP)</t>
-  </si>
-  <si>
-    <t>Gendarmería de Chile</t>
-  </si>
-  <si>
-    <t>Partido Ciudadanos</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Región de Aconcagua</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Metropolitanos para la Seguridad Ciudadana (AMMSeguridad)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Valdivia</t>
-  </si>
-  <si>
-    <t>Asociación Chilena de Municipalidades con Farmacias Populares (ACHIFARP)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Primavera</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
-  </si>
-  <si>
-    <t>Hospital Regional Coyhaique</t>
-  </si>
-  <si>
-    <t>SERVIU Región de Los Ríos</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
-  </si>
-  <si>
-    <t>Dirección de Arquitectura (DARQ)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Iquique</t>
-  </si>
-  <si>
-    <t>Carabineros de Chile</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de Arauco y Curanilahue</t>
-  </si>
-  <si>
-    <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
-  </si>
-  <si>
-    <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
-  </si>
-  <si>
     <t>Municipalidad de El Carmen</t>
   </si>
   <si>
@@ -430,25 +430,25 @@
     <t>Municipalidad de Santa Bárbara</t>
   </si>
   <si>
+    <t>Defensa Civil de Chile</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
   </si>
   <si>
-    <t>Defensa Civil de Chile</t>
-  </si>
-  <si>
     <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
   </si>
   <si>
+    <t>Asociación de Municipalidades para la Seguridad Ciudadana Concón  Limache</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades del Valle del Maipo</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Turísticas de Chile (AMTC)</t>
+  </si>
+  <si>
     <t>Municipalidad de Independencia</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades del Valle del Maipo</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades para la Seguridad Ciudadana Concón  Limache</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Turísticas de Chile (AMTC)</t>
   </si>
   <si>
     <t>Municipalidad de Vicuña</t>
@@ -840,7 +840,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>

--- a/noreportaron.xlsx
+++ b/noreportaron.xlsx
@@ -25,213 +25,213 @@
     <t>Reporta Abril</t>
   </si>
   <si>
+    <t>CM012</t>
+  </si>
+  <si>
+    <t>MU227</t>
+  </si>
+  <si>
+    <t>AP015</t>
+  </si>
+  <si>
+    <t>MA010</t>
+  </si>
+  <si>
+    <t>AM005</t>
+  </si>
+  <si>
+    <t>MU017</t>
+  </si>
+  <si>
+    <t>MA031</t>
+  </si>
+  <si>
+    <t>AO040</t>
+  </si>
+  <si>
+    <t>MU244</t>
+  </si>
+  <si>
+    <t>CM004</t>
+  </si>
+  <si>
+    <t>AO059</t>
+  </si>
+  <si>
+    <t>CM024</t>
+  </si>
+  <si>
+    <t>MA037</t>
+  </si>
+  <si>
+    <t>MU153</t>
+  </si>
+  <si>
+    <t>MA053</t>
+  </si>
+  <si>
+    <t>MU169</t>
+  </si>
+  <si>
+    <t>MU075</t>
+  </si>
+  <si>
+    <t>MU028</t>
+  </si>
+  <si>
+    <t>MA033</t>
+  </si>
+  <si>
+    <t>CF009</t>
+  </si>
+  <si>
+    <t>MA046</t>
+  </si>
+  <si>
+    <t>MU112</t>
+  </si>
+  <si>
+    <t>MU194</t>
+  </si>
+  <si>
+    <t>MU330</t>
+  </si>
+  <si>
+    <t>MA056</t>
+  </si>
+  <si>
+    <t>AD023</t>
+  </si>
+  <si>
+    <t>AO069</t>
+  </si>
+  <si>
+    <t>MA047</t>
+  </si>
+  <si>
+    <t>MA002</t>
+  </si>
+  <si>
+    <t>AO030</t>
+  </si>
+  <si>
+    <t>MA023</t>
+  </si>
+  <si>
+    <t>MU064</t>
+  </si>
+  <si>
+    <t>MU096</t>
+  </si>
+  <si>
+    <t>MA058</t>
+  </si>
+  <si>
+    <t>CM017</t>
+  </si>
+  <si>
     <t>MU344</t>
   </si>
   <si>
-    <t>AD023</t>
-  </si>
-  <si>
-    <t>CM024</t>
-  </si>
-  <si>
-    <t>MA002</t>
+    <t>CM020</t>
+  </si>
+  <si>
+    <t>MA029</t>
+  </si>
+  <si>
+    <t>MA027</t>
+  </si>
+  <si>
+    <t>MA034</t>
+  </si>
+  <si>
+    <t>CM016</t>
+  </si>
+  <si>
+    <t>MA020</t>
   </si>
   <si>
     <t>MU229</t>
   </si>
   <si>
-    <t>MA020</t>
-  </si>
-  <si>
-    <t>MA023</t>
-  </si>
-  <si>
     <t>MU143</t>
   </si>
   <si>
-    <t>MA033</t>
-  </si>
-  <si>
-    <t>CM012</t>
-  </si>
-  <si>
-    <t>MU169</t>
-  </si>
-  <si>
     <t>CM059</t>
   </si>
   <si>
-    <t>MA029</t>
-  </si>
-  <si>
     <t>MU331</t>
   </si>
   <si>
-    <t>MU017</t>
-  </si>
-  <si>
-    <t>CM004</t>
-  </si>
-  <si>
-    <t>MA047</t>
-  </si>
-  <si>
-    <t>CF009</t>
-  </si>
-  <si>
-    <t>MU075</t>
-  </si>
-  <si>
-    <t>MU096</t>
-  </si>
-  <si>
-    <t>MA031</t>
-  </si>
-  <si>
-    <t>AO030</t>
-  </si>
-  <si>
     <t>MA025</t>
   </si>
   <si>
-    <t>MA058</t>
-  </si>
-  <si>
-    <t>CM017</t>
-  </si>
-  <si>
-    <t>CM020</t>
-  </si>
-  <si>
-    <t>MA010</t>
-  </si>
-  <si>
-    <t>MU194</t>
-  </si>
-  <si>
-    <t>MA027</t>
-  </si>
-  <si>
-    <t>MA034</t>
-  </si>
-  <si>
-    <t>CM016</t>
-  </si>
-  <si>
-    <t>MU028</t>
-  </si>
-  <si>
-    <t>MU153</t>
-  </si>
-  <si>
-    <t>AO040</t>
-  </si>
-  <si>
-    <t>MU244</t>
-  </si>
-  <si>
-    <t>AO069</t>
+    <t>AE008</t>
+  </si>
+  <si>
+    <t>AC001</t>
+  </si>
+  <si>
+    <t>MU173</t>
   </si>
   <si>
     <t>AK006</t>
   </si>
   <si>
-    <t>AC001</t>
-  </si>
-  <si>
     <t>PP030</t>
   </si>
   <si>
     <t>MA016</t>
   </si>
   <si>
-    <t>MA056</t>
-  </si>
-  <si>
-    <t>MU330</t>
-  </si>
-  <si>
-    <t>AE008</t>
-  </si>
-  <si>
-    <t>MA053</t>
-  </si>
-  <si>
-    <t>MU227</t>
-  </si>
-  <si>
-    <t>MA046</t>
-  </si>
-  <si>
-    <t>AO059</t>
-  </si>
-  <si>
-    <t>MU064</t>
-  </si>
-  <si>
-    <t>AP015</t>
-  </si>
-  <si>
     <t>MA011</t>
   </si>
   <si>
-    <t>AM005</t>
-  </si>
-  <si>
-    <t>MA037</t>
-  </si>
-  <si>
-    <t>MU112</t>
-  </si>
-  <si>
     <t>AD009</t>
   </si>
   <si>
+    <t>MU083</t>
+  </si>
+  <si>
     <t>MA048</t>
   </si>
   <si>
+    <t>MA003</t>
+  </si>
+  <si>
+    <t>MA015</t>
+  </si>
+  <si>
     <t>MA019</t>
   </si>
   <si>
     <t>AC002</t>
   </si>
   <si>
-    <t>MU173</t>
-  </si>
-  <si>
-    <t>MU083</t>
-  </si>
-  <si>
-    <t>MA003</t>
-  </si>
-  <si>
-    <t>MA015</t>
-  </si>
-  <si>
     <t>MU304</t>
   </si>
   <si>
+    <t>MA043</t>
+  </si>
+  <si>
     <t>AD012</t>
   </si>
   <si>
-    <t>MA043</t>
-  </si>
-  <si>
     <t>AR009</t>
   </si>
   <si>
+    <t>MU111</t>
+  </si>
+  <si>
+    <t>MA049</t>
+  </si>
+  <si>
     <t>MA063</t>
   </si>
   <si>
-    <t>MA049</t>
-  </si>
-  <si>
     <t>MA064</t>
   </si>
   <si>
-    <t>MU111</t>
-  </si>
-  <si>
     <t>MU335</t>
   </si>
   <si>
@@ -244,211 +244,211 @@
     <t>AV001</t>
   </si>
   <si>
+    <t>Corporación Municipal de Educación y Servicios Ramón Freire Dalcahue</t>
+  </si>
+  <si>
+    <t>Municipalidad de Primavera</t>
+  </si>
+  <si>
+    <t>SERVIU Región de Los Ríos</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades para el Desarrollo Económico Local</t>
+  </si>
+  <si>
+    <t>Dirección de Arquitectura (DARQ)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Cabo de Hornos y Antártica</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Ciudad Sur</t>
+  </si>
+  <si>
+    <t>SEREMI de Salud  de Tarapacá</t>
+  </si>
+  <si>
+    <t>Municipalidad de Putre</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Queilen</t>
+  </si>
+  <si>
+    <t>Hospital Regional Coyhaique</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Ancud</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Cordilleranos AMCORDI</t>
+  </si>
+  <si>
+    <t>Municipalidad de Los Angeles</t>
+  </si>
+  <si>
+    <t>Asociación Chilena de Municipalidades con Farmacias Populares (ACHIFARP)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Maule</t>
+  </si>
+  <si>
+    <t>Municipalidad de Curanilahue</t>
+  </si>
+  <si>
+    <t>Municipalidad de Carahue</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Costa Araucanía</t>
+  </si>
+  <si>
+    <t>CFT de la Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
+  </si>
+  <si>
+    <t>Municipalidad de Iquique</t>
+  </si>
+  <si>
+    <t>Municipalidad de Padre Las Casas</t>
+  </si>
+  <si>
+    <t>Municipalidad de Valdivia</t>
+  </si>
+  <si>
+    <t>Asociación de Municipios Metropolitanos para la Seguridad Ciudadana (AMMSeguridad)</t>
+  </si>
+  <si>
+    <t>Estado Mayor Conjunto (EMCO)</t>
+  </si>
+  <si>
+    <t>Hospital Urgencia Asistencia Pública (HUAP)</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades con Centros de Montaña</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Servicio de Salud Arauco</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>Municipalidad de Constitución</t>
+  </si>
+  <si>
+    <t>Municipalidad de Futrono</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de La Reina</t>
+  </si>
+  <si>
     <t>Municipalidad de Yungay</t>
   </si>
   <si>
-    <t>Estado Mayor Conjunto (EMCO)</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Ancud</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Región de Antofagasta</t>
+    <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de Ciudades Puerto y Borde Costero</t>
+  </si>
+  <si>
+    <t>Asociación Municipal para la sustentabilidad ambiental AMUSA</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades Rurales del Norte Chico</t>
+  </si>
+  <si>
+    <t>Corporación Municipal de Desarrollo Social de Til Til</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades del Norte de Chile</t>
   </si>
   <si>
     <t>Municipalidad de Puchuncaví</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades del Norte de Chile</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Región de Valparaíso</t>
-  </si>
-  <si>
     <t>Municipalidad de Llay Llay</t>
   </si>
   <si>
-    <t>Asociación de Municipios Costa Araucanía</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Educación y Servicios Ramón Freire Dalcahue</t>
-  </si>
-  <si>
-    <t>Municipalidad de Maule</t>
-  </si>
-  <si>
     <t>Corporación Municipal de Deporte Rancagua</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades de Ciudades Puerto y Borde Costero</t>
-  </si>
-  <si>
     <t>Municipalidad de Vallenar</t>
   </si>
   <si>
-    <t>Municipalidad de Cabo de Hornos y Antártica</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Queilen</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades con Centros de Montaña</t>
-  </si>
-  <si>
-    <t>CFT de la Región de Antofagasta</t>
-  </si>
-  <si>
-    <t>Municipalidad de Curanilahue</t>
-  </si>
-  <si>
-    <t>Municipalidad de Futrono</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Ciudad Sur</t>
-  </si>
-  <si>
-    <t>Servicio de Salud Arauco</t>
-  </si>
-  <si>
     <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de La Reina</t>
-  </si>
-  <si>
-    <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades para el Desarrollo Económico Local</t>
-  </si>
-  <si>
-    <t>Municipalidad de Padre Las Casas</t>
-  </si>
-  <si>
-    <t>Asociación Municipal para la sustentabilidad ambiental AMUSA</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Rurales del Norte Chico</t>
-  </si>
-  <si>
-    <t>Corporación Municipal de Desarrollo Social de Til Til</t>
-  </si>
-  <si>
-    <t>Municipalidad de Carahue</t>
-  </si>
-  <si>
-    <t>Municipalidad de Los Angeles</t>
-  </si>
-  <si>
-    <t>SEREMI de Salud  de Tarapacá</t>
-  </si>
-  <si>
-    <t>Municipalidad de Putre</t>
-  </si>
-  <si>
-    <t>Hospital Urgencia Asistencia Pública (HUAP)</t>
+    <t>Superintendencia de Bancos e Instituciones Financieras (SBIF)</t>
+  </si>
+  <si>
+    <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+  </si>
+  <si>
+    <t>Municipalidad de Melipilla</t>
   </si>
   <si>
     <t>Gendarmería de Chile</t>
   </si>
   <si>
-    <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
-  </si>
-  <si>
     <t>Partido Ciudadanos</t>
   </si>
   <si>
     <t>Asociación de Municipalidades de la Región de Aconcagua</t>
   </si>
   <si>
-    <t>Asociación de Municipios Metropolitanos para la Seguridad Ciudadana (AMMSeguridad)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Valdivia</t>
-  </si>
-  <si>
-    <t>Superintendencia de Bancos e Instituciones Financieras (SBIF)</t>
-  </si>
-  <si>
-    <t>Asociación Chilena de Municipalidades con Farmacias Populares (ACHIFARP)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Primavera</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Provincia del Huasco</t>
-  </si>
-  <si>
-    <t>Hospital Regional Coyhaique</t>
-  </si>
-  <si>
-    <t>Municipalidad de Constitución</t>
-  </si>
-  <si>
-    <t>SERVIU Región de Los Ríos</t>
-  </si>
-  <si>
     <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
   </si>
   <si>
-    <t>Dirección de Arquitectura (DARQ)</t>
-  </si>
-  <si>
-    <t>Asociación de Municipios Cordilleranos AMCORDI</t>
-  </si>
-  <si>
-    <t>Municipalidad de Iquique</t>
-  </si>
-  <si>
     <t>Carabineros de Chile</t>
   </si>
   <si>
+    <t>Municipalidad de El Carmen</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades de Arauco y Curanilahue</t>
   </si>
   <si>
+    <t>Asociación de Municipalidades Nahuelbuta (AMN)</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades de la Provincia de Arauco</t>
+  </si>
+  <si>
     <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
   </si>
   <si>
     <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
   </si>
   <si>
-    <t>Municipalidad de Melipilla</t>
-  </si>
-  <si>
-    <t>Municipalidad de El Carmen</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades Nahuelbuta (AMN)</t>
-  </si>
-  <si>
-    <t>Asociación de Municipalidades de la Provincia de Arauco</t>
-  </si>
-  <si>
     <t>Municipalidad de Santa Bárbara</t>
   </si>
   <si>
+    <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+  </si>
+  <si>
     <t>Defensa Civil de Chile</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
-  </si>
-  <si>
     <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
   </si>
   <si>
+    <t>Municipalidad de Independencia</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades del Valle del Maipo</t>
+  </si>
+  <si>
     <t>Asociación de Municipalidades para la Seguridad Ciudadana Concón  Limache</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades del Valle del Maipo</t>
-  </si>
-  <si>
     <t>Asociación de Municipalidades Turísticas de Chile (AMTC)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Independencia</t>
   </si>
   <si>
     <t>Municipalidad de Vicuña</t>
@@ -840,7 +840,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>410</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>426</v>
+        <v>342</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>449</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>459</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>502</v>
+        <v>400</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>503</v>
+        <v>417</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>511</v>
+        <v>440</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>526</v>
+        <v>455</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
